--- a/Output_Folders/Concept_Norm_Files/Open_NMT_experiment_results_validation.xlsx
+++ b/Output_Folders/Concept_Norm_Files/Open_NMT_experiment_results_validation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MaylaB/Dropbox/Documents/0_Thesis_stuff-Larry_Sonia/Negacy_seq_2_seq_NER_model/ConceptRecognition/Concept_Norm_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C177CB73-4357-DA4A-B2C7-949B63B23667}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FC1E4E-DBEB-3247-905C-29B57C408D43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16620" activeTab="4" xr2:uid="{82E14A74-B419-6B4E-8DDF-2A3AFADE285A}"/>
+    <workbookView xWindow="13560" yWindow="700" windowWidth="14400" windowHeight="16620" firstSheet="1" activeTab="5" xr2:uid="{82E14A74-B419-6B4E-8DDF-2A3AFADE285A}"/>
   </bookViews>
   <sheets>
     <sheet name="full files" sheetId="1" r:id="rId1"/>
@@ -137,6 +137,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -169,7 +172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -177,12 +180,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -194,6 +234,10 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,7 +556,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -581,7 +625,7 @@
       <c r="F2" s="3">
         <v>0.31</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="7">
         <v>0.04</v>
       </c>
       <c r="H2">
@@ -616,7 +660,7 @@
       <c r="F3" s="3">
         <v>0.09</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="7">
         <v>0</v>
       </c>
       <c r="H3">
@@ -651,7 +695,7 @@
       <c r="F4" s="3">
         <v>0.16</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="7">
         <v>0.02</v>
       </c>
       <c r="H4">
@@ -686,7 +730,7 @@
       <c r="F5" s="3">
         <v>0.18</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="7">
         <v>0.04</v>
       </c>
       <c r="H5">
@@ -721,7 +765,7 @@
       <c r="F6" s="3">
         <v>0.25</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="7">
         <v>0.01</v>
       </c>
       <c r="H6">
@@ -756,7 +800,7 @@
       <c r="F7" s="3">
         <v>0.02</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="7">
         <v>0.02</v>
       </c>
       <c r="H7">
@@ -791,7 +835,7 @@
       <c r="F8" s="3">
         <v>0.3</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H8">
@@ -826,7 +870,7 @@
       <c r="F9" s="3">
         <v>0.42</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="7">
         <v>0.1</v>
       </c>
       <c r="H9">
@@ -861,7 +905,7 @@
       <c r="F10" s="3">
         <v>0.03</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="7">
         <v>0.01</v>
       </c>
       <c r="H10">
@@ -896,7 +940,7 @@
       <c r="F11" s="3">
         <v>0.12</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="7">
         <v>0.01</v>
       </c>
       <c r="H11">
@@ -1329,7 +1373,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2134,7 +2178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A3D9B5-5635-FD4C-AA01-B4BA656491CA}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -2534,8 +2578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853638C5-FAF2-5F45-901C-2EEE9D05C250}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2559,7 +2603,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -2580,34 +2624,34 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>1222</v>
+        <v>10887</v>
       </c>
       <c r="C2" s="2">
-        <v>0.89</v>
+        <v>0.12</v>
       </c>
       <c r="D2" s="2">
-        <v>0.11</v>
+        <v>0.88</v>
       </c>
       <c r="E2" s="2">
-        <v>0.92</v>
+        <v>0.71</v>
       </c>
       <c r="F2" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G2" s="9">
         <v>0.08</v>
       </c>
-      <c r="G2" s="2">
-        <v>0.14000000000000001</v>
-      </c>
       <c r="H2">
-        <v>435</v>
+        <v>10081</v>
       </c>
       <c r="I2">
-        <v>0.84</v>
+        <v>0.06</v>
       </c>
       <c r="J2">
-        <v>0.16</v>
+        <v>0.94</v>
       </c>
       <c r="K2">
-        <v>0.26</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -2615,34 +2659,34 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>644</v>
+        <v>1027</v>
       </c>
       <c r="C3" s="2">
-        <v>0.96</v>
+        <v>0.74</v>
       </c>
       <c r="D3" s="2">
-        <v>0.04</v>
+        <v>0.26</v>
       </c>
       <c r="E3" s="2">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F3" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.15</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.01</v>
       </c>
       <c r="H3">
-        <v>214</v>
+        <v>595</v>
       </c>
       <c r="I3">
-        <v>0.89</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J3">
-        <v>0.11</v>
+        <v>0.45</v>
       </c>
       <c r="K3">
-        <v>0.17</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -2650,13 +2694,13 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>10149</v>
+        <v>10171</v>
       </c>
       <c r="C4" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D4" s="2">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="E4" s="2">
         <v>0.84</v>
@@ -2664,17 +2708,17 @@
       <c r="F4" s="2">
         <v>0.16</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="9">
         <v>0.02</v>
       </c>
       <c r="H4">
-        <v>9264</v>
+        <v>9279</v>
       </c>
       <c r="I4">
-        <v>0.54</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J4">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="K4">
         <v>0.02</v>
@@ -2685,34 +2729,34 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>1498</v>
+        <v>1508</v>
       </c>
       <c r="C5" s="2">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="D5" s="2">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="E5" s="2">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="F5" s="2">
-        <v>0.13</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.03</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.04</v>
       </c>
       <c r="H5">
-        <v>848</v>
+        <v>858</v>
       </c>
       <c r="I5">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="J5">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="K5">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -2734,8 +2778,8 @@
       <c r="F6" s="2">
         <v>0.09</v>
       </c>
-      <c r="G6" s="2">
-        <v>0.04</v>
+      <c r="G6" s="9">
+        <v>0.02</v>
       </c>
       <c r="H6">
         <v>141</v>
@@ -2747,7 +2791,7 @@
         <v>0.19</v>
       </c>
       <c r="K6">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -2755,25 +2799,25 @@
         <v>25</v>
       </c>
       <c r="B7">
-        <v>67</v>
+        <v>435</v>
       </c>
       <c r="C7" s="2">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="D7" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.11</v>
       </c>
       <c r="E7" s="2">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F7" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.2</v>
+        <v>0.02</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.06</v>
       </c>
       <c r="H7">
-        <v>34</v>
+        <v>401</v>
       </c>
       <c r="I7">
         <v>0.88</v>
@@ -2782,7 +2826,7 @@
         <v>0.12</v>
       </c>
       <c r="K7">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -2790,34 +2834,34 @@
         <v>26</v>
       </c>
       <c r="B8">
-        <v>750</v>
+        <v>45425</v>
       </c>
       <c r="C8" s="2">
-        <v>0.98</v>
+        <v>0.01</v>
       </c>
       <c r="D8" s="2">
-        <v>0.02</v>
+        <v>0.99</v>
       </c>
       <c r="E8" s="2">
-        <v>0.99</v>
+        <v>0.74</v>
       </c>
       <c r="F8" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.06</v>
+        <v>0.26</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.09</v>
       </c>
       <c r="H8">
-        <v>96</v>
+        <v>44674</v>
       </c>
       <c r="I8">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -2825,34 +2869,34 @@
         <v>27</v>
       </c>
       <c r="B9">
-        <v>1979</v>
+        <v>73120</v>
       </c>
       <c r="C9" s="2">
-        <v>0.95</v>
+        <v>0.02</v>
       </c>
       <c r="D9" s="2">
-        <v>0.05</v>
+        <v>0.98</v>
       </c>
       <c r="E9" s="2">
-        <v>0.98</v>
+        <v>0.69</v>
       </c>
       <c r="F9" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="G9" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="G9" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H9">
-        <v>605</v>
+        <v>71532</v>
       </c>
       <c r="I9">
-        <v>0.85</v>
+        <v>0.01</v>
       </c>
       <c r="J9">
-        <v>0.15</v>
+        <v>0.99</v>
       </c>
       <c r="K9">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -2860,69 +2904,69 @@
         <v>28</v>
       </c>
       <c r="B10">
-        <v>2477</v>
+        <v>3042</v>
       </c>
       <c r="C10" s="2">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="D10" s="2">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="E10" s="2">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="F10" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="G10" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="G10" s="9">
         <v>0.01</v>
       </c>
       <c r="H10">
-        <v>426</v>
+        <v>978</v>
       </c>
       <c r="I10">
-        <v>0.88</v>
+        <v>0.79</v>
       </c>
       <c r="J10">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="K10">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
       <c r="B11">
-        <v>1502</v>
+        <v>5318</v>
       </c>
       <c r="C11" s="2">
-        <v>0.94</v>
+        <v>0.51</v>
       </c>
       <c r="D11" s="2">
-        <v>0.06</v>
+        <v>0.49</v>
       </c>
       <c r="E11" s="2">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="F11" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.18</v>
+        <v>0.11</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0.01</v>
       </c>
       <c r="H11">
-        <v>581</v>
+        <v>4378</v>
       </c>
       <c r="I11">
-        <v>0.87</v>
+        <v>0.41</v>
       </c>
       <c r="J11">
-        <v>0.13</v>
+        <v>0.59</v>
       </c>
       <c r="K11">
-        <v>0.21</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
